--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value249.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value249.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.32900970105302</v>
+        <v>1.182636380195618</v>
       </c>
       <c r="B1">
-        <v>1.301131640866067</v>
+        <v>2.157172203063965</v>
       </c>
       <c r="C1">
-        <v>1.340784957774805</v>
+        <v>3.012982606887817</v>
       </c>
       <c r="D1">
-        <v>1.777058854869387</v>
+        <v>3.518430471420288</v>
       </c>
       <c r="E1">
-        <v>2.958041219115274</v>
+        <v>1.633718490600586</v>
       </c>
     </row>
   </sheetData>
